--- a/run_sheets.xlsx
+++ b/run_sheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\pretest_fmri\Guess_fMRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\GUESS\Guess_fMRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCBB609-CB6F-4A0F-A1FA-48D2989A8CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C11F0B-D665-4E1E-845B-4DFF031275FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>run1_sheet.xlsx</t>
-  </si>
-  <si>
-    <t>this_sheet</t>
-  </si>
-  <si>
-    <t>run2_sheet.xlsx</t>
-  </si>
-  <si>
-    <t>run3_sheet.xlsx</t>
-  </si>
-  <si>
-    <t>run4_sheet.xlsx</t>
+    <t>thisList</t>
   </si>
 </sst>
 </file>
@@ -79,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,36 +347,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21.3984375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
